--- a/COVID19/RegUppsala-Covid/RegUppsala_COVID_nubild_backup.xlsx
+++ b/COVID19/RegUppsala-Covid/RegUppsala_COVID_nubild_backup.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,83 +418,83 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B2">
-        <v>964</v>
+        <v>1228</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>961</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B3">
-        <v>1229</v>
+        <v>1083</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1051</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B4">
-        <v>1201</v>
+        <v>1240</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>465</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B5">
-        <v>1314</v>
+        <v>1194</v>
       </c>
       <c r="C5">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>1239</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -502,41 +502,41 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B8">
-        <v>1105</v>
+        <v>260</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B9">
-        <v>1147</v>
+        <v>1107</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B10">
-        <v>1207</v>
+        <v>1152</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -544,13 +544,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B11">
-        <v>1189</v>
+        <v>1207</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B12">
-        <v>1154</v>
+        <v>1189</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B13">
-        <v>142</v>
+        <v>1154</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B14">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="B15">
-        <v>1104</v>
+        <v>137</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B16">
-        <v>990</v>
+        <v>1104</v>
       </c>
       <c r="C16">
         <v>61</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B17">
-        <v>1189</v>
+        <v>990</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B18">
-        <v>1254</v>
+        <v>1189</v>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -656,13 +656,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="B19">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C19">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -670,13 +670,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>1252</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B21">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -698,13 +698,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B22">
-        <v>1189</v>
+        <v>221</v>
       </c>
       <c r="C22">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B23">
-        <v>1051</v>
+        <v>1189</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B24">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B25">
-        <v>1154</v>
+        <v>1081</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B26">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="C26">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>1180</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B28">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B29">
-        <v>879</v>
+        <v>157</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -810,13 +810,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B30">
-        <v>733</v>
+        <v>879</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B31">
-        <v>777</v>
+        <v>733</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -838,13 +838,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B32">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B33">
-        <v>836</v>
+        <v>795</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>836</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -894,13 +894,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="B36">
-        <v>728</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B37">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B38">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -936,13 +936,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B39">
-        <v>782</v>
+        <v>742</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B40">
-        <v>843</v>
+        <v>782</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -964,13 +964,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>843</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="B43">
-        <v>697</v>
+        <v>124</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B44">
-        <v>840</v>
+        <v>697</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B45">
-        <v>775</v>
+        <v>840</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B46">
-        <v>845</v>
+        <v>775</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B47">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>817</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="B49">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="B50">
-        <v>782</v>
+        <v>105</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B51">
-        <v>846</v>
+        <v>782</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B52">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B53">
-        <v>904</v>
+        <v>784</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B54">
-        <v>759</v>
+        <v>904</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>759</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B56">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="B57">
-        <v>708</v>
+        <v>102</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B58">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B59">
-        <v>782</v>
+        <v>704</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B60">
-        <v>721</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B61">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1258,13 +1258,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B62">
-        <v>78</v>
+        <v>715</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B63">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B64">
-        <v>602</v>
+        <v>58</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B65">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B66">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1328,13 +1328,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B67">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B68">
-        <v>666</v>
+        <v>526</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="B69">
-        <v>46</v>
+        <v>666</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="B70">
         <v>46</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="B71">
-        <v>354</v>
+        <v>46</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B72">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B73">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B74">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1440,13 +1440,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B75">
-        <v>496</v>
+        <v>428</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B76">
-        <v>56</v>
+        <v>496</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B77">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1482,13 +1482,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="B78">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1496,13 +1496,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B79">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1510,13 +1510,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B80">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B81">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B82">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44052</v>
+        <v>44053</v>
       </c>
       <c r="B83">
-        <v>52</v>
+        <v>458</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1566,13 +1566,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="B84">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="B85">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B86">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1608,13 +1608,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B87">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B88">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B89">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="B90">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="B91">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="B92">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B93">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B94">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B95">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B96">
-        <v>488</v>
+        <v>292</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="B97">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="B98">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="B99">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B100">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B101">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -1818,13 +1818,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B102">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="B103">
-        <v>470</v>
+        <v>292</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44031</v>
+        <v>44032</v>
       </c>
       <c r="B104">
-        <v>56</v>
+        <v>470</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="B105">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="B106">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B107">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -1902,13 +1902,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B108">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C108">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B109">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -1930,13 +1930,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B110">
-        <v>624</v>
+        <v>420</v>
       </c>
       <c r="C110">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="B111">
-        <v>89</v>
+        <v>624</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="B112">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="B113">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -1986,13 +1986,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B114">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B115">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="C115">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B116">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C116">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B117">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="C117">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B118">
-        <v>70</v>
+        <v>644</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B119">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -2070,13 +2070,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B120">
-        <v>443</v>
+        <v>65</v>
       </c>
       <c r="C120">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B121">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C121">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B122">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="C122">
         <v>23</v>
@@ -2112,13 +2112,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B123">
-        <v>603</v>
+        <v>518</v>
       </c>
       <c r="C123">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B124">
-        <v>876</v>
+        <v>603</v>
       </c>
       <c r="C124">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B125">
-        <v>61</v>
+        <v>876</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B126">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B127">
-        <v>526</v>
+        <v>56</v>
       </c>
       <c r="C127">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2182,13 +2182,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B128">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="C128">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B129">
-        <v>667</v>
+        <v>555</v>
       </c>
       <c r="C129">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B130">
-        <v>884</v>
+        <v>667</v>
       </c>
       <c r="C130">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B131">
-        <v>962</v>
+        <v>884</v>
       </c>
       <c r="C131">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2238,13 +2238,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B132">
-        <v>59</v>
+        <v>962</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B133">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C133">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B134">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2280,13 +2280,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B135">
-        <v>423</v>
+        <v>91</v>
       </c>
       <c r="C135">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2294,13 +2294,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B136">
-        <v>746</v>
+        <v>423</v>
       </c>
       <c r="C136">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2308,13 +2308,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B137">
-        <v>343</v>
+        <v>746</v>
       </c>
       <c r="C137">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="C138">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B139">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2350,13 +2350,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B140">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2364,13 +2364,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B141">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="C141">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2378,13 +2378,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B142">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C142">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B143">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C143">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B144">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="C144">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B145">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="C145">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B146">
-        <v>87</v>
+        <v>414</v>
       </c>
       <c r="C146">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2448,13 +2448,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B147">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B148">
-        <v>292</v>
+        <v>89</v>
       </c>
       <c r="C148">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B149">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C149">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B150">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C150">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B151">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C151">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B152">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="C152">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B153">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="C153">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2546,13 +2546,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B154">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C154">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -2560,13 +2560,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B155">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="C155">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B156">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C156">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B157">
         <v>246</v>
       </c>
       <c r="C157">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -2602,13 +2602,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B158">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C158">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -2616,13 +2616,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B159">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="C159">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -2630,13 +2630,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B160">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="C160">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B161">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C161">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -2658,13 +2658,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B162">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="C162">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B163">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="C163">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -2686,13 +2686,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B164">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="C164">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B165">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C165">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B166">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C166">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B167">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B168">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -2756,13 +2756,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="C169">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2770,13 +2770,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B170">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C170">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B171">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C171">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B172">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C172">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B173">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C173">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B174">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B175">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C175">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B176">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="C176">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B177">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C177">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -2882,13 +2882,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B178">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C178">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B179">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C179">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B180">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="C180">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B181">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="C181">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B182">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C182">
         <v>14</v>
@@ -2952,13 +2952,13 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B183">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C183">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B184">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C184">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B185">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C185">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B186">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="C186">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B187">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C187">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B188">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="C188">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B189">
         <v>91</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B190">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="C190">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3064,13 +3064,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B191">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C191">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B192">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="C192">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B193">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="C193">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B194">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C194">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B195">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="C195">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B196">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C196">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B197">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="C197">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B198">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C198">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B199">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C199">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B200">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C200">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B201">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="C201">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B202">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C202">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B203">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C203">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B204">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C204">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B205">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="C205">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B206">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C206">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B207">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C207">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3302,13 +3302,13 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B208">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C208">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B209">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C209">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B210">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C210">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -3344,13 +3344,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B211">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C211">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3358,13 +3358,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B212">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C212">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B213">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C213">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -3386,13 +3386,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B214">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C214">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B215">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C215">
         <v>20</v>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B216">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C216">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -3428,13 +3428,13 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B217">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C217">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -3442,13 +3442,13 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B218">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C218">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B219">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C219">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -3470,13 +3470,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B220">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C220">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B221">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C221">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B222">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C222">
         <v>11</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B223">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B224">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B225">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B226">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B227">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B228">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C228">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B229">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C229">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B230">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C230">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -3624,13 +3624,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B231">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B232">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B233">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C233">
         <v>6</v>
@@ -3666,13 +3666,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B234">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C234">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B235">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C235">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B236">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B237">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -3722,13 +3722,13 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C240">
         <v>2</v>
@@ -3764,15 +3764,29 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>43889</v>
       </c>
-      <c r="B241">
+      <c r="B242">
         <v>1</v>
       </c>
-      <c r="C241">
+      <c r="C242">
         <v>1</v>
       </c>
-      <c r="D241">
+      <c r="D242">
         <v>0</v>
       </c>
     </row>
@@ -3783,7 +3797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3802,87 +3816,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="B3">
         <v>53</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3890,21 +3904,21 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3912,7 +3926,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -3923,10 +3937,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3934,10 +3948,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -3945,54 +3959,54 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="B18">
         <v>39</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4000,32 +4014,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="B20">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -4033,10 +4047,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -4044,21 +4058,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B24">
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4066,10 +4080,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -4077,21 +4091,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>44108</v>
+        <v>44109</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4099,10 +4113,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4110,21 +4124,21 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4132,10 +4146,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4143,21 +4157,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4165,10 +4179,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4176,10 +4190,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4187,7 +4201,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="B37">
         <v>12</v>
@@ -4198,10 +4212,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4209,10 +4223,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4220,7 +4234,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -4231,7 +4245,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B41">
         <v>12</v>
@@ -4242,29 +4256,29 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -4275,7 +4289,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -4286,10 +4300,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4297,7 +4311,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -4308,10 +4322,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4319,10 +4333,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4330,10 +4344,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4341,10 +4355,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4352,7 +4366,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -4363,18 +4377,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B53">
         <v>12</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -4385,10 +4399,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4396,7 +4410,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -4407,10 +4421,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="B57">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4418,21 +4432,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B58">
         <v>13</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4440,10 +4454,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4451,10 +4465,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4462,10 +4476,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -4473,7 +4487,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -4484,7 +4498,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -4495,10 +4509,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4506,10 +4520,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4517,7 +4531,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -4528,10 +4542,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4539,7 +4553,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="B69">
         <v>13</v>
@@ -4550,7 +4564,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -4561,10 +4575,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4572,10 +4586,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4583,7 +4597,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -4594,10 +4608,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4605,10 +4619,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4616,10 +4630,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4627,7 +4641,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -4638,10 +4652,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4649,10 +4663,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4660,7 +4674,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -4671,10 +4685,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4682,10 +4696,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4693,10 +4707,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>44052</v>
+        <v>44053</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4704,10 +4718,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4715,10 +4729,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4726,21 +4740,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4748,32 +4762,32 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B88">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B89">
         <v>17</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4781,7 +4795,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="B91">
         <v>18</v>
@@ -4792,10 +4806,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="B92">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4803,10 +4817,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4814,7 +4828,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B94">
         <v>16</v>
@@ -4825,10 +4839,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4836,10 +4850,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B96">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4847,10 +4861,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="B97">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4858,10 +4872,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="B98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4869,10 +4883,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4880,10 +4894,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4891,29 +4905,29 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B102">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="B103">
         <v>23</v>
@@ -4924,32 +4938,32 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>44031</v>
+        <v>44032</v>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="B105">
         <v>24</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="B106">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -4957,7 +4971,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="B107">
         <v>25</v>
@@ -4968,21 +4982,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B108">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B109">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -4990,21 +5004,21 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B110">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="B111">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -5012,54 +5026,54 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="B113">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B114">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B115">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B116">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C116">
         <v>6</v>
@@ -5067,21 +5081,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B118">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -5089,54 +5103,54 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B119">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C119">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="B120">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B121">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B122">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B123">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -5144,32 +5158,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B124">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C124">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B125">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C125">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B126">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C126">
         <v>8</v>
@@ -5177,120 +5191,120 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B127">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B128">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B129">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B130">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B131">
         <v>77</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B132">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B133">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B134">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B135">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C135">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B136">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C136">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B137">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C137">
         <v>12</v>
@@ -5298,43 +5312,43 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C138">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B139">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B140">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B141">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C141">
         <v>13</v>
@@ -5342,10 +5356,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B142">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -5353,43 +5367,43 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B143">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C143">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B144">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C144">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B145">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C145">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B146">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C146">
         <v>14</v>
@@ -5397,32 +5411,32 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B147">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C147">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B148">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C148">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B149">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C149">
         <v>17</v>
@@ -5430,65 +5444,65 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B150">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B151">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C151">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B152">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C152">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B153">
         <v>87</v>
       </c>
       <c r="C153">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B154">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B155">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C155">
         <v>15</v>
@@ -5496,76 +5510,76 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B156">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B157">
         <v>93</v>
       </c>
       <c r="C157">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B158">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C158">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B159">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B160">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B161">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C161">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B162">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C162">
         <v>14</v>
@@ -5573,10 +5587,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B163">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C163">
         <v>14</v>
@@ -5584,32 +5598,32 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B164">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C164">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B165">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C165">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B166">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C166">
         <v>14</v>
@@ -5617,10 +5631,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B167">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C167">
         <v>14</v>
@@ -5628,7 +5642,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B168">
         <v>104</v>
@@ -5639,175 +5653,175 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C169">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B170">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B171">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B172">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B173">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C173">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B174">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C174">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B175">
         <v>101</v>
       </c>
       <c r="C175">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B176">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C176">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B177">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C177">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B178">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C178">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B179">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C179">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B180">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C180">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B181">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C181">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B182">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C182">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B183">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C183">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B184">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C184">
         <v>21</v>
@@ -5815,43 +5829,43 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B185">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C185">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B186">
         <v>128</v>
       </c>
       <c r="C186">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B187">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C187">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B188">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C188">
         <v>21</v>
@@ -5859,10 +5873,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B189">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C189">
         <v>21</v>
@@ -5870,43 +5884,43 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B190">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C190">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B191">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B192">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C192">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B193">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C193">
         <v>23</v>
@@ -5914,10 +5928,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B194">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C194">
         <v>23</v>
@@ -5925,65 +5939,65 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B195">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C195">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B196">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C196">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B197">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C197">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B198">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C198">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B199">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C199">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B200">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C200">
         <v>22</v>
@@ -5991,32 +6005,32 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B201">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C201">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B202">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C202">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B203">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C203">
         <v>22</v>
@@ -6024,32 +6038,32 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B204">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C204">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B205">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C205">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B206">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C206">
         <v>24</v>
@@ -6057,21 +6071,21 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B207">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C207">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B208">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C208">
         <v>22</v>
@@ -6079,32 +6093,32 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B209">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C209">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B210">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C210">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B211">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C211">
         <v>15</v>
@@ -6112,65 +6126,65 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B212">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C212">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B213">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C213">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B214">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B215">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B216">
         <v>48</v>
       </c>
       <c r="C216">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B217">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C217">
         <v>7</v>
@@ -6178,54 +6192,54 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B218">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C218">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B219">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C219">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B220">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B221">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B222">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -6233,18 +6247,18 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B223">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B224">
         <v>26</v>
@@ -6255,10 +6269,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -6266,10 +6280,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B226">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C226">
         <v>2</v>
@@ -6277,21 +6291,21 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B227">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B228">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6299,32 +6313,32 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B229">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B230">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -6332,18 +6346,18 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B233">
         <v>7</v>
@@ -6354,10 +6368,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -6365,10 +6379,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -6376,7 +6390,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B236">
         <v>7</v>
@@ -6387,10 +6401,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -6398,10 +6412,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -6409,7 +6423,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B239">
         <v>4</v>
@@ -6420,7 +6434,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B240">
         <v>4</v>
@@ -6431,10 +6445,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -6442,7 +6456,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -6453,7 +6467,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -6464,10 +6478,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -6475,7 +6489,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -6486,7 +6500,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6497,12 +6511,23 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
         <v>0</v>
       </c>
     </row>
